--- a/OnBoard/output/trust/catch/Catch_Trust_9.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_9.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -929,16 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.1</v>
+        <v>0.268</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -967,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.268</v>
+        <v>2.7</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1008,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G16">
-        <v>2.7</v>
+        <v>0.889</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1044,24 +1047,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.889</v>
+        <v>0.008</v>
       </c>
       <c r="H17">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1090,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.008</v>
+        <v>0.068</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1131,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.068</v>
+        <v>0.306</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1172,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.306</v>
+        <v>0.03</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1213,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.03</v>
+        <v>0.188</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1254,16 +1257,16 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.188</v>
+        <v>0.266</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1295,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.266</v>
+        <v>0.135</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1336,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.135</v>
+        <v>0.062</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1377,16 +1380,16 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Lophius budegassa</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.062</v>
+        <v>0.239</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1418,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lophius budegassa</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.239</v>
+        <v>1.198</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1459,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.198</v>
+        <v>0.136</v>
       </c>
       <c r="H27">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1500,19 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.136</v>
+        <v>0.044</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1541,16 +1544,16 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mullus barbatus</t>
+          <t>Nephrops norvegicus</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.044</v>
+        <v>0.128</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1582,16 +1585,16 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nephrops norvegicus</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.128</v>
+        <v>0.004</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1623,16 +1626,16 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Parapenaeus longirostris</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.004</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1664,19 +1667,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.07099999999999999</v>
+        <v>3.598</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1705,19 +1708,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G33">
-        <v>3.598</v>
+        <v>0.647</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1746,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.647</v>
+        <v>0.007</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="35">
@@ -1787,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Alpheus glaber</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ALPHGLA</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="36">
@@ -1828,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Alpheus glaber</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ALPHGLA</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0.035</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="37">
@@ -1869,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Aspidosiphon muelleri muelleri</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASPIMUE</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.035</v>
+        <v>0.008</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="38">
@@ -1910,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Aspidosiphon muelleri muelleri</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASPIMUE</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.008</v>
+        <v>0.062</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="39">
@@ -1951,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.062</v>
+        <v>0.127</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="40">
@@ -1992,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Liocarcinus depurator</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.127</v>
+        <v>0.19</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="41">
@@ -2033,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.19</v>
+        <v>0.005</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="42">
@@ -2074,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Nereididae nd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>NEREIDI</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="43">
@@ -2115,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nereididae nd</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NEREIDI</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.001</v>
+        <v>0.395</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="44">
@@ -2156,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiotrix quinquemaculata</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIQUI</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.395</v>
+        <v>0.004</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I44">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="45">
@@ -2197,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ophiotrix quinquemaculata</t>
+          <t>Paguristes eremita</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OPHIQUI</t>
+          <t>PAGUERE</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H45">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="46">
@@ -2238,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Paguristes eremita</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PAGUERE</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="47">
@@ -2279,22 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.002</v>
+        <v>0.66</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I47">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="48">
@@ -2320,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.66</v>
+        <v>1.651</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="I48">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="49">
@@ -2361,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Sipunculidae nd</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SIPUNND</t>
         </is>
       </c>
       <c r="G49">
-        <v>1.651</v>
+        <v>0.26</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="I49">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="50">
@@ -2402,22 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sipunculidae nd</t>
+          <t>Solenocera membranacea</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SIPUNND</t>
+          <t>SOLOMEM</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.26</v>
+        <v>0.002</v>
       </c>
       <c r="H50">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="51">
@@ -2443,22 +2446,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Solenocera membranacea</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SOLOMEM</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.002</v>
+        <v>0.033</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I51">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="52">
@@ -2484,22 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.033</v>
+        <v>0.161</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="I52">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
     <row r="53">
@@ -2525,63 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.161</v>
+        <v>0.44</v>
       </c>
       <c r="H53">
-        <v>131</v>
+        <v>-1</v>
       </c>
       <c r="I53">
-        <v>23.48303571428572</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G54">
-        <v>0.44</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>23.48303571428572</v>
+        <v>23.50089285714286</v>
       </c>
     </row>
   </sheetData>
